--- a/biology/Botanique/Šumice_(Voždovac)/Šumice_(Voždovac).xlsx
+++ b/biology/Botanique/Šumice_(Voždovac)/Šumice_(Voždovac).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%A0umice_(Vo%C5%BEdovac)</t>
+          <t>Šumice_(Voždovac)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Šumice (en serbe cyrillique : Шумице) est un parc et un quartier de Belgrade, la capitale de la Serbie. Il est situé dans la municipalité urbaine de Voždovac. Au recensement de 2002, il comptait 7 228 habitants[1].
+Šumice (en serbe cyrillique : Шумице) est un parc et un quartier de Belgrade, la capitale de la Serbie. Il est situé dans la municipalité urbaine de Voždovac. Au recensement de 2002, il comptait 7 228 habitants.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%A0umice_(Vo%C5%BEdovac)</t>
+          <t>Šumice_(Voždovac)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Šumice est situé dans partie sud-est de la colline de Pašino brdo. Au sud, le quartier est délimité par la rue Ustanička et à l'est par la rue Vojislava Ilića, ces deux rues le séparant du quartier de Konjarnik. À l'ouest le parc borde le quartier de Dušanovac.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%A0umice_(Vo%C5%BEdovac)</t>
+          <t>Šumice_(Voždovac)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est constitué de deux parties séparées par la rue Vojvode Toze. Dans ses contours actuels, il est le vestige d'un bois plus étendu qui existait avant la Première Guerre mondiale ; on rapporte qu'à cette époque, pendant les hivers les plus rudes, des loups y descendaient depuis le mont Avala.
 Le parc héberge des hérissons et des chauves-souris et il est particulièrement réputé pour ses nombreux écureuils, qui, souvent, quittent le parc et grimpent aux arbres dans les jardins alentour. Dans les années 1980, on pouvait y apercevoir des pics verts et des mésanges bleues, qui ont aujourd'hui, semble-t-il disparu.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%A0umice_(Vo%C5%BEdovac)</t>
+          <t>Šumice_(Voždovac)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Quartier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le quartier a été construit à la fin des années 1960 et au début des années 1970 ; il se présente comme un secteur moderne doté de nombreux espaces verts.
 Parmi les lieux phares du quartier, on peut citer :
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%A0umice_(Vo%C5%BEdovac)</t>
+          <t>Šumice_(Voždovac)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Šumice est desservi par trois lignes de bus de la société GSP Beograd, soit les lignes 17 (Konjarnik – Zemun Gornji grad)[2], 31 (Studentski trg – Konjarnik)[3] et 50 (Ustanička – Banovo brdo)[4]. Trois lignes de trolleybus passent par le quartier : lignes 19 (Studentski trg - Konjarnik)[5], 21 (Studentski trg – Učiteljsko naselje)[6] et 29 (Studentski trg - Medaković III)[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Šumice est desservi par trois lignes de bus de la société GSP Beograd, soit les lignes 17 (Konjarnik – Zemun Gornji grad), 31 (Studentski trg – Konjarnik) et 50 (Ustanička – Banovo brdo). Trois lignes de trolleybus passent par le quartier : lignes 19 (Studentski trg - Konjarnik), 21 (Studentski trg – Učiteljsko naselje) et 29 (Studentski trg - Medaković III).
 </t>
         </is>
       </c>
